--- a/data_algo/calculation_algo_naivebayes.xlsx
+++ b/data_algo/calculation_algo_naivebayes.xlsx
@@ -103,11 +103,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -142,24 +142,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,23 +163,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -202,16 +179,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +227,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -233,7 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,29 +264,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,49 +292,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,133 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,22 +563,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -554,191 +598,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1482,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -2161,8 +2161,8 @@
       <c r="E21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G21" s="7">
         <f>E4*G8*G12*G16</f>

--- a/data_algo/calculation_algo_naivebayes.xlsx
+++ b/data_algo/calculation_algo_naivebayes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATASET" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>value2</t>
-  </si>
-  <si>
-    <t>summary</t>
   </si>
   <si>
     <t>ratio</t>
@@ -103,11 +100,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -133,9 +130,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,62 +159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -218,11 +175,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,20 +197,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -262,20 +213,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -292,19 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,163 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -525,22 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,17 +552,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,148 +600,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1483,7 +1480,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -2025,10 +2022,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2051,7 +2048,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
@@ -2078,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>15</v>
